--- a/aggregated_output/RALEIGH_aggregated.xlsx
+++ b/aggregated_output/RALEIGH_aggregated.xlsx
@@ -438,35 +438,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page contains various resources and information that can help ABI gather more details about setting up the environment. ABI is motivated to accomplish tasks and prefers to gather comprehensive information before proceeding. The presence of links to deployment processes and other relevant documentation aligns with ABI's need for detailed information.</t>
+Why: ABI is motivated to accomplish tasks and prefers to gather comprehensive information before proceeding. The page provides various resources and documentation links (e.g., README.md, contribute.md, Deploying.md) that are relevant to setting up the environment. This aligns with ABI's need to gather detailed information to form a complete understanding of the task at hand.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The subgoal of gathering more information on setting up the environment aligns with Abi's motivation to accomplish tasks using technology. Additionally, Abi's comprehensive information processing style means they would likely consider gathering detailed information as a necessary step toward achieving the overall use case of setting up the environment. The page provides various resources and links that could help Abi gather the required information.</t>
+Why: ABI is motivated to accomplish tasks and prefers to gather comprehensive information before proceeding. The page provides various resources and documentation links (e.g., `README.md`, `contribute.md`, `Deploying.md`) that are relevant to setting up the environment. This aligns with ABI's motivation to complete the task and their information processing style of gathering detailed information.</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page contains various pieces of information related to the project, including deployment processes and other relevant documentation. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely consider gathering more information on setting up the environment as a necessary step toward achieving the overall use case.</t>
+Why: ABI is motivated to accomplish tasks and prefers to gather comprehensive information before proceeding. The page provides various resources and documentation links (e.g., `README.md`, `contribute.md`, `Deploying.md`) that are relevant to setting up the environment. This aligns with ABI's motivation to complete the task and their information processing style of gathering detailed information.</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page contains various pieces of information related to the project, including deployment processes and technologies used. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely consider gathering more information on setting up the environment as a necessary step toward achieving the overall use case.</t>
+Why: The page contains various files and documentation links, such as "README.md," "contribute.md," and "Deploying.md," which are likely to contain information on setting up the environment. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would consider gathering more information from these resources as a necessary step toward setting up the environment.</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides various resources and information related to the project, including deployment processes and code style guides. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely consider gathering more information on setting up the environment as a necessary step toward achieving the overall use case.</t>
+Why: ABI is motivated to accomplish tasks and will likely recognize that gathering more information is a necessary step toward setting up the environment. Additionally, ABI's comprehensive information processing style means they will want to gather all relevant information before proceeding. The page provides various resources and documentation links that ABI can use to gather the necessary information.</t>
         </is>
       </c>
     </row>
@@ -475,35 +475,35 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: Scrolling to find information is a straightforward action that aligns with ABI's comprehensive information processing style. The page is well-organized with clear sections and headings, making it easy for ABI to identify where to find relevant information about setting up the environment.</t>
+Why: Scrolling to find information aligns with ABI's comprehensive information processing style. The page is well-organized with clear sections and headings, making it easier for ABI to locate relevant information about setting up the environment. The presence of various documentation links and resources further supports ABI's need to gather detailed information.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: Scrolling to find information is a straightforward action that aligns with Abi's comprehensive information processing style. The page is well-organized with clear sections and headings, making it easy for Abi to identify where to find relevant information. This action does not require any unfamiliar computing tasks, and the layout supports Abi's preference for process-oriented learning.</t>
+Facets: 2. Information Processing Style
+Why: Scrolling to find information aligns with ABI's comprehensive information processing style. The page is well-organized with clear sections and headings, making it easy for ABI to identify where to find relevant information about setting up the environment. The presence of documentation links and detailed descriptions further supports ABI's need to gather comprehensive information.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Scrolling to find information is a straightforward action that aligns with Abi's comprehensive information processing style. The page is well-organized with clear sections and headings, making it easier for Abi to navigate and find the relevant information. This action does not require high technical skills, so Abi's lower computer self-efficacy should not be a barrier here.</t>
+Facets: 2. Information Processing Style
+Why: Scrolling to find information aligns with ABI's comprehensive information processing style. The page is structured with various sections and links that are likely to contain relevant information about setting up the environment. ABI will be able to scroll through the page to gather the necessary details.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: Scrolling to find information aligns with Abi's comprehensive information processing style. The page is structured with various sections and headings that provide a clear indication of where relevant information might be found. This makes it likely that Abi will know to scroll and look for the information needed to set up the environment.</t>
+Why: Scrolling to find information aligns with Abi's comprehensive information processing style. The page contains various files and documentation links that are likely to provide the necessary information for setting up the environment. Abi would be motivated to scroll through the page to gather more information, as it is a logical step toward achieving her subgoal.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Scrolling to find information is a straightforward action that aligns with Abi's comprehensive information processing style. The page is well-organized with clear sections and headings, making it easy for Abi to identify where to find relevant information. This reduces the likelihood of feeling overwhelmed or uncertain, thus supporting her computer self-efficacy.</t>
+Facets: 2. Information Processing Style
+Why: Scrolling to find information aligns with ABI's comprehensive information processing style. The page is structured in a way that allows ABI to scroll and find various pieces of information related to setting up the environment, such as documentation links and contact information. This action is straightforward and does not require any unfamiliar computing tasks, making it suitable for ABI.</t>
         </is>
       </c>
     </row>
@@ -512,35 +512,35 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling might reveal some relevant information, the page contains a lot of different sections and links, which could be overwhelming for ABI. The information is not specifically focused on setting up the environment, and ABI might not be confident that they have found all the necessary details. ABI's comprehensive information processing style requires clear and specific guidance, which is not fully provided on this page. Additionally, ABI's low computer self-efficacy might make them doubt whether they have gathered all the required information.</t>
+Why: While scrolling, ABI might find some relevant information, but the page contains a lot of different files and links, which can be overwhelming. ABI's comprehensive information processing style means they need clear, organized, and specific information to feel confident they are making progress. The page does not provide a clear, step-by-step guide or a specific section dedicated to setting up the environment, which might leave ABI uncertain if they have gathered all the necessary information. Additionally, ABI's low computer self-efficacy might make them doubt if they have found the right information or if they are missing something important.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling might help Abi find some information, the page is quite dense with various sections and links. Abi might not immediately know if they have found all the necessary information for setting up the environment. The page does not provide a clear, consolidated guide or step-by-step instructions specifically for setting up the environment, which Abi would prefer due to their comprehensive information processing style and lower computer self-efficacy. Abi might feel uncertain about whether they have gathered all the required information, leading to a lack of confidence in their progress.</t>
+Why: While scrolling, ABI might find some relevant links and information, but the page contains a lot of different sections and files, which could be overwhelming. ABI might not be confident that they have found all the necessary information for setting up the environment due to the scattered nature of the content. ABI's comprehensive information processing style requires clear and consolidated information, and the current page layout might not provide that assurance. Additionally, ABI's low computer self-efficacy might make them doubt if they have gathered all the required information correctly.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling, Abi might find some relevant information, but the page contains a lot of different sections and links, which could be overwhelming. The information is not specifically organized in a way that clearly guides Abi on setting up the environment. Abi's comprehensive information processing style means she needs clear, step-by-step instructions, and her lower computer self-efficacy means she might struggle to piece together the necessary steps from the scattered information. Therefore, she might not feel confident that she has gathered all the information she needs or that she is making progress toward her goal.</t>
+Why: While scrolling, ABI might find some relevant links and information, but the page is quite dense with various files and sections. ABI might not be confident that they have found all the necessary information due to the overwhelming amount of content. The page does not clearly guide ABI to specific resources for setting up the environment, which could make ABI unsure if they have gathered all the required information. This could hinder ABI's comprehensive information processing style and affect their confidence in making progress toward their goal.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling might reveal some information, the page is quite dense with various sections and links. Abi might not immediately find comprehensive and clear instructions specifically for setting up the environment. The information is scattered, and without clear guidance or a step-by-step process, Abi might feel uncertain about whether she has gathered all the necessary information. This could affect her confidence in making progress toward her goal.</t>
+Why: While scrolling, Abi might find various files and documentation links, but it is not immediately clear which specific document contains the comprehensive information needed for setting up the environment. The page has many files and links, which could be overwhelming and confusing for Abi, given her low computer self-efficacy. She might not be confident that she has found all the necessary information or that she is making progress toward her goal. The lack of clear guidance or a step-by-step process on the page could hinder her ability to gather all the required information effectively.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling, Abi might find some relevant information, but the page contains a lot of different sections and links, which could be overwhelming. The information is not specifically focused on setting up the environment, and Abi might not be sure if she has found all the necessary details. Given her comprehensive information processing style, she might feel uncertain about whether she has gathered all the required information, affecting her confidence in making progress toward her goal.</t>
+Why: While scrolling, ABI might find some relevant information, but the page contains a lot of different types of information, which can be overwhelming. ABI's comprehensive information processing style means they need clear, organized, and relevant information to feel confident they are making progress. The page has various links and sections, but it is not immediately clear which ones are specifically for setting up the environment. This lack of clear direction can make ABI uncertain if they are on the right track, especially given their low computer self-efficacy.</t>
         </is>
       </c>
     </row>

--- a/aggregated_output/RALEIGH_aggregated.xlsx
+++ b/aggregated_output/RALEIGH_aggregated.xlsx
@@ -1,37 +1,105 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page contains various files and documentation that could provide information on setting up the environment. ABI, who prefers to gather comprehensive information before acting, would likely consider reviewing these resources as a necessary step toward achieving the overall use case of setting up the environment. The presence of files like `README.md`, `contrib.md`, and `production_env_on_local_machine.md` suggests that relevant setup information might be available, aligning with ABI's motivation to accomplish the task and their information processing style.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page contains a "README.md" file and a "How to use?" section, which are likely to provide information on setting up the environment. ABI, who prefers to gather comprehensive information before acting, would consider reading these sections as a step toward achieving the overall use case of setting up the environment. This aligns with ABI's motivation to accomplish tasks and their comprehensive information processing style.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page contains a "README.md" file, which is a common place to find information on setting up the environment for a project. ABI, being motivated to accomplish tasks and having a comprehensive information processing style, would likely consider reading the README file as a step toward gathering more information on setting up the environment. The presence of the "How to use?" section also indicates that this page is intended to help users get started, which aligns with ABI's goal.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page contains a "README.md" file and a "How to use?" section, which are likely to provide information on setting up the environment. ABI, who prefers comprehensive information gathering, would consider reading these sections as a step toward achieving the overall use case of setting up the environment. This aligns with ABI's motivation to accomplish tasks and their information processing style of gathering detailed information before acting.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The page is structured in a way that provides a list of files and documentation, which ABI can scroll through to find relevant information. Given ABI's comprehensive information processing style, they are likely to scroll down to gather more details. The presence of files like `README.md`, `contrib.md`, and `production_env_on_local_machine.md` suggests that relevant setup information might be available, making it clear to ABI that scrolling to find this information is a logical next step.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While scrolling might reveal some relevant files and documentation, the page does not provide explicit guidance or clear instructions on setting up the environment. ABI, who prefers comprehensive information and has low confidence in unfamiliar computing tasks, might not feel assured that they have gathered all the necessary information. The page lists various files, but without clear indications of which specific files contain the setup instructions, ABI might feel uncertain about their progress and whether they have all the information needed. This lack of explicit guidance and potential for confusion could hinder ABI's confidence and sense of progress.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The page contains a "README.md" file and a "How to use?" section, which are likely to provide information on setting up the environment. ABI, who prefers to gather comprehensive information before acting, would consider scrolling to find these sections as a logical step. The page layout is clear and not overwhelming, making it easy for ABI to identify where to find the necessary information. This aligns with ABI's comprehensive information processing style.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: After scrolling, ABI will find the "README.md" file and the "How to use?" section, which are likely to provide detailed information on setting up the environment. This aligns with ABI's comprehensive information processing style, as these sections are typically designed to offer step-by-step instructions and relevant details. Additionally, finding these sections will confirm to ABI that they are making progress toward their goal of gathering more information on setting up the environment, aligning with their motivation to accomplish tasks.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: Scrolling to find information is a natural action for someone with a comprehensive information processing style like ABI. The page is structured in a way that suggests there is more information available below the initial view, and the presence of sections like "README.md" and "How to use?" indicates that relevant information might be found by scrolling. Therefore, ABI would know to scroll to gather more information on setting up the environment.</t>
+  </si>
+  <si>
+    <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While scrolling might reveal some information, the page does not provide comprehensive or clear instructions specifically for setting up the environment. The "README.md" file and the "How to use?" section might contain relevant information, but it is not immediately clear or detailed enough to ensure ABI that she has all the necessary information. ABI's comprehensive information processing style requires detailed and clear instructions, and her low computer self-efficacy means she might struggle if the information is not straightforward. Therefore, she might not feel confident that she has made progress toward her goal or gathered all the information she needs.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page is structured in a way that provides clear sections and headings, such as "README.md" and "How to use?", which are likely to contain relevant information for setting up the environment. ABI, who prefers to gather comprehensive information, will recognize the need to scroll to find detailed instructions. The clear layout and familiar structure of the page will help ABI feel confident in taking the action of scrolling to gather more information.</t>
+  </si>
+  <si>
+    <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: After scrolling, ABI will find sections like "README.md" and "How to use?" which are likely to contain detailed information on setting up the environment. This aligns with ABI's comprehensive information processing style, as these sections are designed to provide the necessary details. The presence of these sections will indicate to ABI that they are making progress toward their goal of gathering more information on setting up the environment. The clear and structured layout of the page will help ABI feel confident that they are on the right track.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +114,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,131 +430,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: ABI is motivated to accomplish tasks and prefers to gather comprehensive information before proceeding. The page provides various resources and documentation links (e.g., README.md, contribute.md, Deploying.md) that are relevant to setting up the environment. This aligns with ABI's need to gather detailed information to form a complete understanding of the task at hand.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: ABI is motivated to accomplish tasks and prefers to gather comprehensive information before proceeding. The page provides various resources and documentation links (e.g., `README.md`, `contribute.md`, `Deploying.md`) that are relevant to setting up the environment. This aligns with ABI's motivation to complete the task and their information processing style of gathering detailed information.</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: ABI is motivated to accomplish tasks and prefers to gather comprehensive information before proceeding. The page provides various resources and documentation links (e.g., `README.md`, `contribute.md`, `Deploying.md`) that are relevant to setting up the environment. This aligns with ABI's motivation to complete the task and their information processing style of gathering detailed information.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page contains various files and documentation links, such as "README.md," "contribute.md," and "Deploying.md," which are likely to contain information on setting up the environment. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would consider gathering more information from these resources as a necessary step toward setting up the environment.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: ABI is motivated to accomplish tasks and will likely recognize that gathering more information is a necessary step toward setting up the environment. Additionally, ABI's comprehensive information processing style means they will want to gather all relevant information before proceeding. The page provides various resources and documentation links that ABI can use to gather the necessary information.</t>
-        </is>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: Scrolling to find information aligns with ABI's comprehensive information processing style. The page is well-organized with clear sections and headings, making it easier for ABI to locate relevant information about setting up the environment. The presence of various documentation links and resources further supports ABI's need to gather detailed information.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: Scrolling to find information aligns with ABI's comprehensive information processing style. The page is well-organized with clear sections and headings, making it easy for ABI to identify where to find relevant information about setting up the environment. The presence of documentation links and detailed descriptions further supports ABI's need to gather comprehensive information.</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: Scrolling to find information aligns with ABI's comprehensive information processing style. The page is structured with various sections and links that are likely to contain relevant information about setting up the environment. ABI will be able to scroll through the page to gather the necessary details.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: Scrolling to find information aligns with Abi's comprehensive information processing style. The page contains various files and documentation links that are likely to provide the necessary information for setting up the environment. Abi would be motivated to scroll through the page to gather more information, as it is a logical step toward achieving her subgoal.</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: Scrolling to find information aligns with ABI's comprehensive information processing style. The page is structured in a way that allows ABI to scroll and find various pieces of information related to setting up the environment, such as documentation links and contact information. This action is straightforward and does not require any unfamiliar computing tasks, making it suitable for ABI.</t>
-        </is>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling, ABI might find some relevant information, but the page contains a lot of different files and links, which can be overwhelming. ABI's comprehensive information processing style means they need clear, organized, and specific information to feel confident they are making progress. The page does not provide a clear, step-by-step guide or a specific section dedicated to setting up the environment, which might leave ABI uncertain if they have gathered all the necessary information. Additionally, ABI's low computer self-efficacy might make them doubt if they have found the right information or if they are missing something important.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling, ABI might find some relevant links and information, but the page contains a lot of different sections and files, which could be overwhelming. ABI might not be confident that they have found all the necessary information for setting up the environment due to the scattered nature of the content. ABI's comprehensive information processing style requires clear and consolidated information, and the current page layout might not provide that assurance. Additionally, ABI's low computer self-efficacy might make them doubt if they have gathered all the required information correctly.</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling, ABI might find some relevant links and information, but the page is quite dense with various files and sections. ABI might not be confident that they have found all the necessary information due to the overwhelming amount of content. The page does not clearly guide ABI to specific resources for setting up the environment, which could make ABI unsure if they have gathered all the required information. This could hinder ABI's comprehensive information processing style and affect their confidence in making progress toward their goal.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling, Abi might find various files and documentation links, but it is not immediately clear which specific document contains the comprehensive information needed for setting up the environment. The page has many files and links, which could be overwhelming and confusing for Abi, given her low computer self-efficacy. She might not be confident that she has found all the necessary information or that she is making progress toward her goal. The lack of clear guidance or a step-by-step process on the page could hinder her ability to gather all the required information effectively.</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling, ABI might find some relevant information, but the page contains a lot of different types of information, which can be overwhelming. ABI's comprehensive information processing style means they need clear, organized, and relevant information to feel confident they are making progress. The page has various links and sections, but it is not immediately clear which ones are specifically for setting up the environment. This lack of clear direction can make ABI uncertain if they are on the right track, especially given their low computer self-efficacy.</t>
-        </is>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>